--- a/LibNMeCab45/dic/ipadic/Symbol.xlsx
+++ b/LibNMeCab45/dic/ipadic/Symbol.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USERS\ayaki\Documents\Visual Studio 2019\Projects\NMeCabSb\LibNMeCab45\dic\ipadic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5D93BE-198F-4444-9700-56988BFE0D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEA5F8B-5424-43B8-A0C6-FD9D202BEFCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17790" yWindow="2550" windowWidth="19130" windowHeight="18410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbol" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Symbol!$A$1:$N$326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Symbol!$A$1:$N$325</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="346">
   <si>
     <t>δ</t>
   </si>
@@ -849,9 +849,6 @@
   </si>
   <si>
     <t>Β</t>
-  </si>
-  <si>
-    <t>ノ</t>
   </si>
   <si>
     <t>ρ</t>
@@ -1142,6 +1139,10 @@
   </si>
   <si>
     <t>2751</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ラテン</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2109,10 +2110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O326"/>
+  <dimension ref="A1:O325"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A316" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2122,46 +2123,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" t="s">
         <v>277</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>278</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>279</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>280</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>281</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>282</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>283</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>284</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>285</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>286</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>287</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>288</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>289</v>
-      </c>
-      <c r="N1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -5134,7 +5135,7 @@
         <v>±</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -5452,7 +5453,7 @@
         <v>≠</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -5590,7 +5591,7 @@
         <v>≦</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -5638,7 +5639,7 @@
         <v>≧</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -5686,7 +5687,7 @@
         <v>∞</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -5734,7 +5735,7 @@
         <v>∴</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -5782,7 +5783,7 @@
         <v>♂</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -5830,7 +5831,7 @@
         <v>♀</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -5878,7 +5879,7 @@
         <v>°</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -5971,7 +5972,7 @@
         <v>″</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -6019,7 +6020,7 @@
         <v>℃</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -6157,7 +6158,7 @@
         <v>￠</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -6250,12 +6251,12 @@
         <v>％</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -6285,13 +6286,13 @@
         <v>3</v>
       </c>
       <c r="K92" t="s">
+        <v>274</v>
+      </c>
+      <c r="L92" t="s">
         <v>275</v>
       </c>
-      <c r="L92" t="s">
-        <v>276</v>
-      </c>
       <c r="M92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N92" t="str">
         <f t="shared" si="1"/>
@@ -7378,7 +7379,7 @@
         <v>∈</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -7426,7 +7427,7 @@
         <v>∋</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -7474,7 +7475,7 @@
         <v>⊆</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -7522,7 +7523,7 @@
         <v>⊇</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -7570,7 +7571,7 @@
         <v>⊂</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -7618,7 +7619,7 @@
         <v>⊃</v>
       </c>
       <c r="N121" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -7666,7 +7667,7 @@
         <v>∪</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -7714,7 +7715,7 @@
         <v>∩</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -7762,7 +7763,7 @@
         <v>∧</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -7810,7 +7811,7 @@
         <v>∨</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -7858,7 +7859,7 @@
         <v>￢</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -7906,7 +7907,7 @@
         <v>⇒</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -7954,7 +7955,7 @@
         <v>⇔</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8002,7 +8003,7 @@
         <v>∀</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8050,7 +8051,7 @@
         <v>∃</v>
       </c>
       <c r="N130" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8098,7 +8099,7 @@
         <v>∠</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8146,7 +8147,7 @@
         <v>⊥</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8194,7 +8195,7 @@
         <v>⌒</v>
       </c>
       <c r="N133" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8242,7 +8243,7 @@
         <v>∂</v>
       </c>
       <c r="N134" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8290,7 +8291,7 @@
         <v>∇</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8338,7 +8339,7 @@
         <v>≡</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8386,7 +8387,7 @@
         <v>≒</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8434,7 +8435,7 @@
         <v>≪</v>
       </c>
       <c r="N138" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8482,7 +8483,7 @@
         <v>≫</v>
       </c>
       <c r="N139" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8530,7 +8531,7 @@
         <v>√</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8578,7 +8579,7 @@
         <v>∽</v>
       </c>
       <c r="N141" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8626,7 +8627,7 @@
         <v>∝</v>
       </c>
       <c r="N142" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8674,7 +8675,7 @@
         <v>∵</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8722,7 +8723,7 @@
         <v>∫</v>
       </c>
       <c r="N144" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8770,7 +8771,7 @@
         <v>∬</v>
       </c>
       <c r="N145" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8818,7 +8819,7 @@
         <v>Å</v>
       </c>
       <c r="N146" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8866,7 +8867,7 @@
         <v>‰</v>
       </c>
       <c r="N147" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8914,7 +8915,7 @@
         <v>♯</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -8962,7 +8963,7 @@
         <v>♭</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -9010,7 +9011,7 @@
         <v>♪</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -9058,7 +9059,7 @@
         <v>†</v>
       </c>
       <c r="N151" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -9106,7 +9107,7 @@
         <v>‡</v>
       </c>
       <c r="N152" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -9154,7 +9155,7 @@
         <v>¶</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -9177,7 +9178,7 @@
         <v>2</v>
       </c>
       <c r="G154" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H154" t="s">
         <v>3</v>
@@ -9222,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="G155" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H155" t="s">
         <v>3</v>
@@ -9267,7 +9268,7 @@
         <v>2</v>
       </c>
       <c r="G156" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H156" t="s">
         <v>3</v>
@@ -9312,7 +9313,7 @@
         <v>2</v>
       </c>
       <c r="G157" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H157" t="s">
         <v>3</v>
@@ -9357,7 +9358,7 @@
         <v>2</v>
       </c>
       <c r="G158" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H158" t="s">
         <v>3</v>
@@ -9402,7 +9403,7 @@
         <v>2</v>
       </c>
       <c r="G159" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H159" t="s">
         <v>3</v>
@@ -9447,7 +9448,7 @@
         <v>2</v>
       </c>
       <c r="G160" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H160" t="s">
         <v>3</v>
@@ -9492,7 +9493,7 @@
         <v>2</v>
       </c>
       <c r="G161" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H161" t="s">
         <v>3</v>
@@ -9537,7 +9538,7 @@
         <v>2</v>
       </c>
       <c r="G162" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H162" t="s">
         <v>3</v>
@@ -9582,7 +9583,7 @@
         <v>2</v>
       </c>
       <c r="G163" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H163" t="s">
         <v>3</v>
@@ -9627,7 +9628,7 @@
         <v>2</v>
       </c>
       <c r="G164" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H164" t="s">
         <v>3</v>
@@ -9672,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="G165" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H165" t="s">
         <v>3</v>
@@ -9717,7 +9718,7 @@
         <v>2</v>
       </c>
       <c r="G166" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H166" t="s">
         <v>3</v>
@@ -9762,7 +9763,7 @@
         <v>2</v>
       </c>
       <c r="G167" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H167" t="s">
         <v>3</v>
@@ -9807,7 +9808,7 @@
         <v>2</v>
       </c>
       <c r="G168" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H168" t="s">
         <v>3</v>
@@ -9852,7 +9853,7 @@
         <v>2</v>
       </c>
       <c r="G169" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H169" t="s">
         <v>3</v>
@@ -9897,7 +9898,7 @@
         <v>2</v>
       </c>
       <c r="G170" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H170" t="s">
         <v>3</v>
@@ -9942,7 +9943,7 @@
         <v>2</v>
       </c>
       <c r="G171" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H171" t="s">
         <v>3</v>
@@ -9987,7 +9988,7 @@
         <v>2</v>
       </c>
       <c r="G172" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H172" t="s">
         <v>3</v>
@@ -10032,7 +10033,7 @@
         <v>2</v>
       </c>
       <c r="G173" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H173" t="s">
         <v>3</v>
@@ -10077,7 +10078,7 @@
         <v>2</v>
       </c>
       <c r="G174" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H174" t="s">
         <v>3</v>
@@ -10122,7 +10123,7 @@
         <v>2</v>
       </c>
       <c r="G175" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H175" t="s">
         <v>3</v>
@@ -10167,7 +10168,7 @@
         <v>2</v>
       </c>
       <c r="G176" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H176" t="s">
         <v>3</v>
@@ -10212,7 +10213,7 @@
         <v>2</v>
       </c>
       <c r="G177" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H177" t="s">
         <v>3</v>
@@ -10257,7 +10258,7 @@
         <v>2</v>
       </c>
       <c r="G178" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H178" t="s">
         <v>3</v>
@@ -10302,7 +10303,7 @@
         <v>2</v>
       </c>
       <c r="G179" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H179" t="s">
         <v>3</v>
@@ -10347,7 +10348,7 @@
         <v>2</v>
       </c>
       <c r="G180" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H180" t="s">
         <v>3</v>
@@ -10368,7 +10369,7 @@
         <v>230</v>
       </c>
       <c r="N180" t="str">
-        <f t="shared" ref="N180:N243" si="11">DEC2HEX(CODE(A180))</f>
+        <f t="shared" ref="N180:N242" si="11">DEC2HEX(CODE(A180))</f>
         <v>235A</v>
       </c>
     </row>
@@ -10392,7 +10393,7 @@
         <v>2</v>
       </c>
       <c r="G181" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H181" t="s">
         <v>3</v>
@@ -10437,7 +10438,7 @@
         <v>2</v>
       </c>
       <c r="G182" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H182" t="s">
         <v>3</v>
@@ -10482,7 +10483,7 @@
         <v>2</v>
       </c>
       <c r="G183" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H183" t="s">
         <v>3</v>
@@ -10527,7 +10528,7 @@
         <v>2</v>
       </c>
       <c r="G184" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H184" t="s">
         <v>3</v>
@@ -10572,7 +10573,7 @@
         <v>2</v>
       </c>
       <c r="G185" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H185" t="s">
         <v>3</v>
@@ -10617,7 +10618,7 @@
         <v>2</v>
       </c>
       <c r="G186" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H186" t="s">
         <v>3</v>
@@ -10662,7 +10663,7 @@
         <v>2</v>
       </c>
       <c r="G187" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H187" t="s">
         <v>3</v>
@@ -10707,7 +10708,7 @@
         <v>2</v>
       </c>
       <c r="G188" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H188" t="s">
         <v>3</v>
@@ -10752,7 +10753,7 @@
         <v>2</v>
       </c>
       <c r="G189" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H189" t="s">
         <v>3</v>
@@ -10797,7 +10798,7 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H190" t="s">
         <v>3</v>
@@ -10842,7 +10843,7 @@
         <v>2</v>
       </c>
       <c r="G191" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H191" t="s">
         <v>3</v>
@@ -10887,7 +10888,7 @@
         <v>2</v>
       </c>
       <c r="G192" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H192" t="s">
         <v>3</v>
@@ -10932,7 +10933,7 @@
         <v>2</v>
       </c>
       <c r="G193" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H193" t="s">
         <v>3</v>
@@ -10977,7 +10978,7 @@
         <v>2</v>
       </c>
       <c r="G194" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H194" t="s">
         <v>3</v>
@@ -11022,7 +11023,7 @@
         <v>2</v>
       </c>
       <c r="G195" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H195" t="s">
         <v>3</v>
@@ -11067,7 +11068,7 @@
         <v>2</v>
       </c>
       <c r="G196" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H196" t="s">
         <v>3</v>
@@ -11112,7 +11113,7 @@
         <v>2</v>
       </c>
       <c r="G197" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H197" t="s">
         <v>3</v>
@@ -11157,7 +11158,7 @@
         <v>2</v>
       </c>
       <c r="G198" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H198" t="s">
         <v>3</v>
@@ -11202,7 +11203,7 @@
         <v>2</v>
       </c>
       <c r="G199" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H199" t="s">
         <v>3</v>
@@ -11247,7 +11248,7 @@
         <v>2</v>
       </c>
       <c r="G200" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H200" t="s">
         <v>3</v>
@@ -11292,7 +11293,7 @@
         <v>2</v>
       </c>
       <c r="G201" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H201" t="s">
         <v>3</v>
@@ -11337,7 +11338,7 @@
         <v>2</v>
       </c>
       <c r="G202" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H202" t="s">
         <v>3</v>
@@ -11382,7 +11383,7 @@
         <v>2</v>
       </c>
       <c r="G203" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H203" t="s">
         <v>3</v>
@@ -11427,7 +11428,7 @@
         <v>2</v>
       </c>
       <c r="G204" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H204" t="s">
         <v>3</v>
@@ -11472,7 +11473,7 @@
         <v>2</v>
       </c>
       <c r="G205" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H205" t="s">
         <v>3</v>
@@ -11517,7 +11518,7 @@
         <v>2</v>
       </c>
       <c r="G206" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H206" t="s">
         <v>3</v>
@@ -11562,7 +11563,7 @@
         <v>2</v>
       </c>
       <c r="G207" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H207" t="s">
         <v>3</v>
@@ -11607,7 +11608,7 @@
         <v>2</v>
       </c>
       <c r="G208" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H208" t="s">
         <v>3</v>
@@ -11652,7 +11653,7 @@
         <v>2</v>
       </c>
       <c r="G209" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="H209" t="s">
         <v>3</v>
@@ -11679,25 +11680,25 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
-        <v>272</v>
+        <v>171</v>
       </c>
       <c r="B210">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C210">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D210">
-        <v>4929</v>
+        <v>968</v>
       </c>
       <c r="E210" t="s">
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G210" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
       <c r="H210" t="s">
         <v>3</v>
@@ -11709,22 +11710,22 @@
         <v>3</v>
       </c>
       <c r="K210" t="s">
-        <v>272</v>
+        <v>171</v>
       </c>
       <c r="L210" t="s">
-        <v>272</v>
+        <v>156</v>
       </c>
       <c r="M210" t="s">
-        <v>272</v>
+        <v>156</v>
       </c>
       <c r="N210" t="str">
         <f t="shared" si="11"/>
-        <v>254E</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="B211">
         <v>4</v>
@@ -11733,7 +11734,7 @@
         <v>4</v>
       </c>
       <c r="D211">
-        <v>968</v>
+        <v>945</v>
       </c>
       <c r="E211" t="s">
         <v>1</v>
@@ -11742,7 +11743,7 @@
         <v>2</v>
       </c>
       <c r="G211" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H211" t="s">
         <v>3</v>
@@ -11754,22 +11755,22 @@
         <v>3</v>
       </c>
       <c r="K211" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="L211" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="M211" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="N211" t="str">
         <f t="shared" si="11"/>
-        <v>2621</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="B212">
         <v>4</v>
@@ -11778,7 +11779,7 @@
         <v>4</v>
       </c>
       <c r="D212">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="E212" t="s">
         <v>1</v>
@@ -11787,7 +11788,7 @@
         <v>2</v>
       </c>
       <c r="G212" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H212" t="s">
         <v>3</v>
@@ -11799,22 +11800,22 @@
         <v>3</v>
       </c>
       <c r="K212" t="s">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="L212" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M212" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N212" t="str">
         <f t="shared" si="11"/>
-        <v>2622</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="B213">
         <v>4</v>
@@ -11832,7 +11833,7 @@
         <v>2</v>
       </c>
       <c r="G213" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H213" t="s">
         <v>3</v>
@@ -11844,22 +11845,22 @@
         <v>3</v>
       </c>
       <c r="K213" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="L213" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="M213" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="N213" t="str">
         <f t="shared" si="11"/>
-        <v>2623</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
-        <v>270</v>
+        <v>93</v>
       </c>
       <c r="B214">
         <v>4</v>
@@ -11877,7 +11878,7 @@
         <v>2</v>
       </c>
       <c r="G214" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H214" t="s">
         <v>3</v>
@@ -11889,22 +11890,22 @@
         <v>3</v>
       </c>
       <c r="K214" t="s">
-        <v>270</v>
+        <v>93</v>
       </c>
       <c r="L214" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M214" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="N214" t="str">
         <f t="shared" si="11"/>
-        <v>2624</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B215">
         <v>4</v>
@@ -11922,7 +11923,7 @@
         <v>2</v>
       </c>
       <c r="G215" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H215" t="s">
         <v>3</v>
@@ -11934,22 +11935,22 @@
         <v>3</v>
       </c>
       <c r="K215" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="L215" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M215" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N215" t="str">
         <f t="shared" si="11"/>
-        <v>2625</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B216">
         <v>4</v>
@@ -11967,7 +11968,7 @@
         <v>2</v>
       </c>
       <c r="G216" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H216" t="s">
         <v>3</v>
@@ -11979,22 +11980,22 @@
         <v>3</v>
       </c>
       <c r="K216" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L216" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M216" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N216" t="str">
         <f t="shared" si="11"/>
-        <v>2626</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="B217">
         <v>4</v>
@@ -12012,7 +12013,7 @@
         <v>2</v>
       </c>
       <c r="G217" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H217" t="s">
         <v>3</v>
@@ -12024,22 +12025,22 @@
         <v>3</v>
       </c>
       <c r="K217" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="L217" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="M217" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="N217" t="str">
         <f t="shared" si="11"/>
-        <v>2627</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="B218">
         <v>4</v>
@@ -12057,7 +12058,7 @@
         <v>2</v>
       </c>
       <c r="G218" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H218" t="s">
         <v>3</v>
@@ -12069,22 +12070,22 @@
         <v>3</v>
       </c>
       <c r="K218" t="s">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="L218" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="M218" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="N218" t="str">
         <f t="shared" si="11"/>
-        <v>2628</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
-        <v>274</v>
+        <v>86</v>
       </c>
       <c r="B219">
         <v>4</v>
@@ -12093,7 +12094,7 @@
         <v>4</v>
       </c>
       <c r="D219">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="E219" t="s">
         <v>1</v>
@@ -12102,7 +12103,7 @@
         <v>2</v>
       </c>
       <c r="G219" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H219" t="s">
         <v>3</v>
@@ -12114,22 +12115,22 @@
         <v>3</v>
       </c>
       <c r="K219" t="s">
-        <v>274</v>
+        <v>86</v>
       </c>
       <c r="L219" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="M219" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="N219" t="str">
         <f t="shared" si="11"/>
-        <v>2629</v>
+        <v>262A</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B220">
         <v>4</v>
@@ -12138,7 +12139,7 @@
         <v>4</v>
       </c>
       <c r="D220">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="E220" t="s">
         <v>1</v>
@@ -12147,7 +12148,7 @@
         <v>2</v>
       </c>
       <c r="G220" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H220" t="s">
         <v>3</v>
@@ -12159,22 +12160,22 @@
         <v>3</v>
       </c>
       <c r="K220" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="L220" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="M220" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="N220" t="str">
         <f t="shared" si="11"/>
-        <v>262A</v>
+        <v>262B</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="B221">
         <v>4</v>
@@ -12192,7 +12193,7 @@
         <v>2</v>
       </c>
       <c r="G221" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H221" t="s">
         <v>3</v>
@@ -12204,22 +12205,22 @@
         <v>3</v>
       </c>
       <c r="K221" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="L221" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="M221" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="N221" t="str">
         <f t="shared" si="11"/>
-        <v>262B</v>
+        <v>262C</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="B222">
         <v>4</v>
@@ -12228,7 +12229,7 @@
         <v>4</v>
       </c>
       <c r="D222">
-        <v>949</v>
+        <v>656</v>
       </c>
       <c r="E222" t="s">
         <v>1</v>
@@ -12237,7 +12238,7 @@
         <v>2</v>
       </c>
       <c r="G222" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H222" t="s">
         <v>3</v>
@@ -12249,22 +12250,22 @@
         <v>3</v>
       </c>
       <c r="K222" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="L222" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="M222" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="N222" t="str">
         <f t="shared" si="11"/>
-        <v>262C</v>
+        <v>262D</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="B223">
         <v>4</v>
@@ -12273,7 +12274,7 @@
         <v>4</v>
       </c>
       <c r="D223">
-        <v>656</v>
+        <v>949</v>
       </c>
       <c r="E223" t="s">
         <v>1</v>
@@ -12282,7 +12283,7 @@
         <v>2</v>
       </c>
       <c r="G223" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H223" t="s">
         <v>3</v>
@@ -12294,22 +12295,22 @@
         <v>3</v>
       </c>
       <c r="K223" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="L223" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M223" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N223" t="str">
         <f t="shared" si="11"/>
-        <v>262D</v>
+        <v>262E</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="B224">
         <v>4</v>
@@ -12327,7 +12328,7 @@
         <v>2</v>
       </c>
       <c r="G224" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H224" t="s">
         <v>3</v>
@@ -12339,22 +12340,22 @@
         <v>3</v>
       </c>
       <c r="K224" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="L224" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M224" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N224" t="str">
         <f t="shared" si="11"/>
-        <v>262E</v>
+        <v>262F</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
-        <v>267</v>
+        <v>69</v>
       </c>
       <c r="B225">
         <v>4</v>
@@ -12363,7 +12364,7 @@
         <v>4</v>
       </c>
       <c r="D225">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="E225" t="s">
         <v>1</v>
@@ -12372,7 +12373,7 @@
         <v>2</v>
       </c>
       <c r="G225" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H225" t="s">
         <v>3</v>
@@ -12384,22 +12385,22 @@
         <v>3</v>
       </c>
       <c r="K225" t="s">
-        <v>267</v>
+        <v>69</v>
       </c>
       <c r="L225" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="M225" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="N225" t="str">
         <f t="shared" si="11"/>
-        <v>262F</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B226">
         <v>4</v>
@@ -12408,7 +12409,7 @@
         <v>4</v>
       </c>
       <c r="D226">
-        <v>969</v>
+        <v>1272</v>
       </c>
       <c r="E226" t="s">
         <v>1</v>
@@ -12417,7 +12418,7 @@
         <v>2</v>
       </c>
       <c r="G226" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H226" t="s">
         <v>3</v>
@@ -12429,22 +12430,22 @@
         <v>3</v>
       </c>
       <c r="K226" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="L226" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="M226" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="N226" t="str">
         <f t="shared" si="11"/>
-        <v>2630</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="B227">
         <v>4</v>
@@ -12453,7 +12454,7 @@
         <v>4</v>
       </c>
       <c r="D227">
-        <v>1272</v>
+        <v>949</v>
       </c>
       <c r="E227" t="s">
         <v>1</v>
@@ -12462,7 +12463,7 @@
         <v>2</v>
       </c>
       <c r="G227" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H227" t="s">
         <v>3</v>
@@ -12474,22 +12475,22 @@
         <v>3</v>
       </c>
       <c r="K227" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="L227" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="M227" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="N227" t="str">
         <f t="shared" si="11"/>
-        <v>2631</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="B228">
         <v>4</v>
@@ -12507,7 +12508,7 @@
         <v>2</v>
       </c>
       <c r="G228" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H228" t="s">
         <v>3</v>
@@ -12519,22 +12520,22 @@
         <v>3</v>
       </c>
       <c r="K228" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="L228" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="M228" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="N228" t="str">
         <f t="shared" si="11"/>
-        <v>2632</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="B229">
         <v>4</v>
@@ -12552,7 +12553,7 @@
         <v>2</v>
       </c>
       <c r="G229" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H229" t="s">
         <v>3</v>
@@ -12564,22 +12565,22 @@
         <v>3</v>
       </c>
       <c r="K229" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="L229" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="M229" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="N229" t="str">
         <f t="shared" si="11"/>
-        <v>2633</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="B230">
         <v>4</v>
@@ -12597,7 +12598,7 @@
         <v>2</v>
       </c>
       <c r="G230" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H230" t="s">
         <v>3</v>
@@ -12609,22 +12610,22 @@
         <v>3</v>
       </c>
       <c r="K230" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="L230" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="M230" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="N230" t="str">
         <f t="shared" si="11"/>
-        <v>2634</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="B231">
         <v>4</v>
@@ -12633,7 +12634,7 @@
         <v>4</v>
       </c>
       <c r="D231">
-        <v>949</v>
+        <v>1730</v>
       </c>
       <c r="E231" t="s">
         <v>1</v>
@@ -12642,7 +12643,7 @@
         <v>2</v>
       </c>
       <c r="G231" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H231" t="s">
         <v>3</v>
@@ -12654,22 +12655,22 @@
         <v>3</v>
       </c>
       <c r="K231" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="L231" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="M231" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="N231" t="str">
         <f t="shared" si="11"/>
-        <v>2635</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B232">
         <v>4</v>
@@ -12678,7 +12679,7 @@
         <v>4</v>
       </c>
       <c r="D232">
-        <v>1730</v>
+        <v>949</v>
       </c>
       <c r="E232" t="s">
         <v>1</v>
@@ -12687,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="G232" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H232" t="s">
         <v>3</v>
@@ -12699,22 +12700,22 @@
         <v>3</v>
       </c>
       <c r="K232" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L232" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="M232" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="N232" t="str">
         <f t="shared" si="11"/>
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -12732,7 +12733,7 @@
         <v>2</v>
       </c>
       <c r="G233" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H233" t="s">
         <v>3</v>
@@ -12744,22 +12745,22 @@
         <v>3</v>
       </c>
       <c r="K233" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="L233" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="M233" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="N233" t="str">
         <f t="shared" si="11"/>
-        <v>2637</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="B234">
         <v>4</v>
@@ -12768,7 +12769,7 @@
         <v>4</v>
       </c>
       <c r="D234">
-        <v>949</v>
+        <v>968</v>
       </c>
       <c r="E234" t="s">
         <v>1</v>
@@ -12777,7 +12778,7 @@
         <v>2</v>
       </c>
       <c r="G234" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H234" t="s">
         <v>3</v>
@@ -12789,22 +12790,22 @@
         <v>3</v>
       </c>
       <c r="K234" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="L234" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="M234" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="N234" t="str">
         <f t="shared" si="11"/>
-        <v>2638</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="B235">
         <v>4</v>
@@ -12813,7 +12814,7 @@
         <v>4</v>
       </c>
       <c r="D235">
-        <v>968</v>
+        <v>945</v>
       </c>
       <c r="E235" t="s">
         <v>1</v>
@@ -12822,7 +12823,7 @@
         <v>2</v>
       </c>
       <c r="G235" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H235" t="s">
         <v>3</v>
@@ -12834,22 +12835,22 @@
         <v>3</v>
       </c>
       <c r="K235" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="L235" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="M235" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="N235" t="str">
         <f t="shared" si="11"/>
-        <v>2641</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B236">
         <v>4</v>
@@ -12858,7 +12859,7 @@
         <v>4</v>
       </c>
       <c r="D236">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="E236" t="s">
         <v>1</v>
@@ -12867,7 +12868,7 @@
         <v>2</v>
       </c>
       <c r="G236" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H236" t="s">
         <v>3</v>
@@ -12879,22 +12880,22 @@
         <v>3</v>
       </c>
       <c r="K236" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L236" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M236" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N236" t="str">
         <f t="shared" si="11"/>
-        <v>2642</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B237">
         <v>4</v>
@@ -12912,7 +12913,7 @@
         <v>2</v>
       </c>
       <c r="G237" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H237" t="s">
         <v>3</v>
@@ -12924,22 +12925,22 @@
         <v>3</v>
       </c>
       <c r="K237" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L237" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="M237" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="N237" t="str">
         <f t="shared" si="11"/>
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B238">
         <v>4</v>
@@ -12957,7 +12958,7 @@
         <v>2</v>
       </c>
       <c r="G238" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H238" t="s">
         <v>3</v>
@@ -12969,22 +12970,22 @@
         <v>3</v>
       </c>
       <c r="K238" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L238" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M238" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="N238" t="str">
         <f t="shared" si="11"/>
-        <v>2644</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B239">
         <v>4</v>
@@ -13002,7 +13003,7 @@
         <v>2</v>
       </c>
       <c r="G239" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H239" t="s">
         <v>3</v>
@@ -13014,22 +13015,22 @@
         <v>3</v>
       </c>
       <c r="K239" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L239" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M239" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N239" t="str">
         <f t="shared" si="11"/>
-        <v>2645</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B240">
         <v>4</v>
@@ -13047,7 +13048,7 @@
         <v>2</v>
       </c>
       <c r="G240" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H240" t="s">
         <v>3</v>
@@ -13059,22 +13060,22 @@
         <v>3</v>
       </c>
       <c r="K240" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="L240" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M240" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N240" t="str">
         <f t="shared" si="11"/>
-        <v>2646</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B241">
         <v>4</v>
@@ -13092,7 +13093,7 @@
         <v>2</v>
       </c>
       <c r="G241" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H241" t="s">
         <v>3</v>
@@ -13104,22 +13105,22 @@
         <v>3</v>
       </c>
       <c r="K241" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="L241" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="M241" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="N241" t="str">
         <f t="shared" si="11"/>
-        <v>2647</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="B242">
         <v>4</v>
@@ -13137,7 +13138,7 @@
         <v>2</v>
       </c>
       <c r="G242" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H242" t="s">
         <v>3</v>
@@ -13149,22 +13150,22 @@
         <v>3</v>
       </c>
       <c r="K242" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="L242" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="M242" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="N242" t="str">
         <f t="shared" si="11"/>
-        <v>2648</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B243">
         <v>4</v>
@@ -13173,7 +13174,7 @@
         <v>4</v>
       </c>
       <c r="D243">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="E243" t="s">
         <v>1</v>
@@ -13182,7 +13183,7 @@
         <v>2</v>
       </c>
       <c r="G243" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H243" t="s">
         <v>3</v>
@@ -13194,22 +13195,22 @@
         <v>3</v>
       </c>
       <c r="K243" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="L243" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="M243" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="N243" t="str">
-        <f t="shared" si="11"/>
-        <v>2649</v>
+        <f t="shared" ref="N243:N325" si="12">DEC2HEX(CODE(A243))</f>
+        <v>264A</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B244">
         <v>4</v>
@@ -13218,7 +13219,7 @@
         <v>4</v>
       </c>
       <c r="D244">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="E244" t="s">
         <v>1</v>
@@ -13227,7 +13228,7 @@
         <v>2</v>
       </c>
       <c r="G244" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H244" t="s">
         <v>3</v>
@@ -13239,22 +13240,22 @@
         <v>3</v>
       </c>
       <c r="K244" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L244" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="M244" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="N244" t="str">
-        <f t="shared" ref="N244:N326" si="12">DEC2HEX(CODE(A244))</f>
-        <v>264A</v>
+        <f t="shared" si="12"/>
+        <v>264B</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="B245">
         <v>4</v>
@@ -13272,7 +13273,7 @@
         <v>2</v>
       </c>
       <c r="G245" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H245" t="s">
         <v>3</v>
@@ -13284,22 +13285,22 @@
         <v>3</v>
       </c>
       <c r="K245" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="L245" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="M245" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="N245" t="str">
         <f t="shared" si="12"/>
-        <v>264B</v>
+        <v>264C</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="B246">
         <v>4</v>
@@ -13308,7 +13309,7 @@
         <v>4</v>
       </c>
       <c r="D246">
-        <v>949</v>
+        <v>654</v>
       </c>
       <c r="E246" t="s">
         <v>1</v>
@@ -13317,7 +13318,7 @@
         <v>2</v>
       </c>
       <c r="G246" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H246" t="s">
         <v>3</v>
@@ -13329,22 +13330,22 @@
         <v>3</v>
       </c>
       <c r="K246" t="s">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="L246" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="M246" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="N246" t="str">
         <f t="shared" si="12"/>
-        <v>264C</v>
+        <v>264D</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B247">
         <v>4</v>
@@ -13353,7 +13354,7 @@
         <v>4</v>
       </c>
       <c r="D247">
-        <v>654</v>
+        <v>949</v>
       </c>
       <c r="E247" t="s">
         <v>1</v>
@@ -13362,7 +13363,7 @@
         <v>2</v>
       </c>
       <c r="G247" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H247" t="s">
         <v>3</v>
@@ -13374,22 +13375,22 @@
         <v>3</v>
       </c>
       <c r="K247" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="L247" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M247" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N247" t="str">
         <f t="shared" si="12"/>
-        <v>264D</v>
+        <v>264E</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B248">
         <v>4</v>
@@ -13407,7 +13408,7 @@
         <v>2</v>
       </c>
       <c r="G248" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H248" t="s">
         <v>3</v>
@@ -13419,22 +13420,22 @@
         <v>3</v>
       </c>
       <c r="K248" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L248" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M248" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N248" t="str">
         <f t="shared" si="12"/>
-        <v>264E</v>
+        <v>264F</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="B249">
         <v>4</v>
@@ -13443,7 +13444,7 @@
         <v>4</v>
       </c>
       <c r="D249">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="E249" t="s">
         <v>1</v>
@@ -13452,7 +13453,7 @@
         <v>2</v>
       </c>
       <c r="G249" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H249" t="s">
         <v>3</v>
@@ -13464,22 +13465,22 @@
         <v>3</v>
       </c>
       <c r="K249" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="L249" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="M249" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="N249" t="str">
         <f t="shared" si="12"/>
-        <v>264F</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
-        <v>123</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>4</v>
@@ -13488,7 +13489,7 @@
         <v>4</v>
       </c>
       <c r="D250">
-        <v>969</v>
+        <v>1272</v>
       </c>
       <c r="E250" t="s">
         <v>1</v>
@@ -13497,7 +13498,7 @@
         <v>2</v>
       </c>
       <c r="G250" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H250" t="s">
         <v>3</v>
@@ -13509,22 +13510,22 @@
         <v>3</v>
       </c>
       <c r="K250" t="s">
-        <v>123</v>
+        <v>272</v>
       </c>
       <c r="L250" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="M250" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="N250" t="str">
         <f t="shared" si="12"/>
-        <v>2650</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="B251">
         <v>4</v>
@@ -13533,7 +13534,7 @@
         <v>4</v>
       </c>
       <c r="D251">
-        <v>1272</v>
+        <v>949</v>
       </c>
       <c r="E251" t="s">
         <v>1</v>
@@ -13542,7 +13543,7 @@
         <v>2</v>
       </c>
       <c r="G251" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H251" t="s">
         <v>3</v>
@@ -13554,22 +13555,22 @@
         <v>3</v>
       </c>
       <c r="K251" t="s">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="L251" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="M251" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="N251" t="str">
         <f t="shared" si="12"/>
-        <v>2651</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="B252">
         <v>4</v>
@@ -13587,7 +13588,7 @@
         <v>2</v>
       </c>
       <c r="G252" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H252" t="s">
         <v>3</v>
@@ -13599,22 +13600,22 @@
         <v>3</v>
       </c>
       <c r="K252" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="L252" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="M252" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="N252" t="str">
         <f t="shared" si="12"/>
-        <v>2652</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B253">
         <v>4</v>
@@ -13632,7 +13633,7 @@
         <v>2</v>
       </c>
       <c r="G253" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H253" t="s">
         <v>3</v>
@@ -13644,22 +13645,22 @@
         <v>3</v>
       </c>
       <c r="K253" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="L253" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="M253" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="N253" t="str">
         <f t="shared" si="12"/>
-        <v>2653</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="B254">
         <v>4</v>
@@ -13677,7 +13678,7 @@
         <v>2</v>
       </c>
       <c r="G254" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H254" t="s">
         <v>3</v>
@@ -13689,22 +13690,22 @@
         <v>3</v>
       </c>
       <c r="K254" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="L254" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="M254" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="N254" t="str">
         <f t="shared" si="12"/>
-        <v>2654</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="B255">
         <v>4</v>
@@ -13713,7 +13714,7 @@
         <v>4</v>
       </c>
       <c r="D255">
-        <v>949</v>
+        <v>1730</v>
       </c>
       <c r="E255" t="s">
         <v>1</v>
@@ -13722,7 +13723,7 @@
         <v>2</v>
       </c>
       <c r="G255" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H255" t="s">
         <v>3</v>
@@ -13734,22 +13735,22 @@
         <v>3</v>
       </c>
       <c r="K255" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="L255" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="M255" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="N255" t="str">
         <f t="shared" si="12"/>
-        <v>2655</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
-        <v>55</v>
+        <v>252</v>
       </c>
       <c r="B256">
         <v>4</v>
@@ -13758,7 +13759,7 @@
         <v>4</v>
       </c>
       <c r="D256">
-        <v>1730</v>
+        <v>949</v>
       </c>
       <c r="E256" t="s">
         <v>1</v>
@@ -13767,7 +13768,7 @@
         <v>2</v>
       </c>
       <c r="G256" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H256" t="s">
         <v>3</v>
@@ -13779,22 +13780,22 @@
         <v>3</v>
       </c>
       <c r="K256" t="s">
-        <v>55</v>
+        <v>252</v>
       </c>
       <c r="L256" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="M256" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="N256" t="str">
         <f t="shared" si="12"/>
-        <v>2656</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="B257">
         <v>4</v>
@@ -13812,7 +13813,7 @@
         <v>2</v>
       </c>
       <c r="G257" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H257" t="s">
         <v>3</v>
@@ -13824,68 +13825,75 @@
         <v>3</v>
       </c>
       <c r="K257" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="L257" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="M257" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="N257" t="str">
         <f t="shared" si="12"/>
-        <v>2657</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A258" t="s">
-        <v>26</v>
-      </c>
-      <c r="B258">
-        <v>4</v>
-      </c>
-      <c r="C258">
-        <v>4</v>
-      </c>
-      <c r="D258">
+      <c r="A258" s="2" t="str">
+        <f t="shared" ref="A258:A321" si="13">CHAR(HEX2DEC($N258))</f>
+        <v>А</v>
+      </c>
+      <c r="B258" s="2">
+        <v>4</v>
+      </c>
+      <c r="C258" s="2">
+        <v>4</v>
+      </c>
+      <c r="D258" s="2">
         <v>949</v>
       </c>
-      <c r="E258" t="s">
-        <v>1</v>
-      </c>
-      <c r="F258" t="s">
+      <c r="E258" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F258" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G258" t="s">
-        <v>291</v>
-      </c>
-      <c r="H258" t="s">
-        <v>3</v>
-      </c>
-      <c r="I258" t="s">
-        <v>3</v>
-      </c>
-      <c r="J258" t="s">
-        <v>3</v>
-      </c>
-      <c r="K258" t="s">
-        <v>26</v>
-      </c>
-      <c r="L258" t="s">
-        <v>27</v>
-      </c>
-      <c r="M258" t="s">
-        <v>27</v>
-      </c>
-      <c r="N258" t="str">
-        <f t="shared" si="12"/>
-        <v>2658</v>
+      <c r="G258" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I258" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J258" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K258" s="2" t="str">
+        <f t="shared" ref="K258:M294" si="14">CHAR(HEX2DEC($N258))</f>
+        <v>А</v>
+      </c>
+      <c r="L258" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>А</v>
+      </c>
+      <c r="M258" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>А</v>
+      </c>
+      <c r="N258" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="O258">
+        <f>HEX2DEC(N258)</f>
+        <v>10017</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="2" t="str">
-        <f t="shared" ref="A259:A322" si="13">CHAR(HEX2DEC($N259))</f>
-        <v>А</v>
+        <f t="shared" si="13"/>
+        <v>Б</v>
       </c>
       <c r="B259" s="2">
         <v>4</v>
@@ -13903,7 +13911,7 @@
         <v>2</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>3</v>
@@ -13915,29 +13923,30 @@
         <v>3</v>
       </c>
       <c r="K259" s="2" t="str">
-        <f t="shared" ref="K259:M295" si="14">CHAR(HEX2DEC($N259))</f>
-        <v>А</v>
+        <f t="shared" si="14"/>
+        <v>Б</v>
       </c>
       <c r="L259" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>А</v>
+        <v>Б</v>
       </c>
       <c r="M259" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>А</v>
-      </c>
-      <c r="N259" s="3" t="s">
-        <v>343</v>
+        <v>Б</v>
+      </c>
+      <c r="N259" s="3" t="str">
+        <f t="shared" ref="N259:N290" si="15">DEC2HEX(O259)</f>
+        <v>2722</v>
       </c>
       <c r="O259">
-        <f>HEX2DEC(N259)</f>
-        <v>10017</v>
+        <f t="shared" ref="O259:O290" si="16">O258+1</f>
+        <v>10018</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Б</v>
+        <v>В</v>
       </c>
       <c r="B260" s="2">
         <v>4</v>
@@ -13955,7 +13964,7 @@
         <v>2</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>3</v>
@@ -13968,29 +13977,29 @@
       </c>
       <c r="K260" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Б</v>
+        <v>В</v>
       </c>
       <c r="L260" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Б</v>
+        <v>В</v>
       </c>
       <c r="M260" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Б</v>
+        <v>В</v>
       </c>
       <c r="N260" s="3" t="str">
-        <f>DEC2HEX(O260)</f>
-        <v>2722</v>
+        <f t="shared" si="15"/>
+        <v>2723</v>
       </c>
       <c r="O260">
-        <f>O259+1</f>
-        <v>10018</v>
+        <f t="shared" si="16"/>
+        <v>10019</v>
       </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>В</v>
+        <v>Г</v>
       </c>
       <c r="B261" s="2">
         <v>4</v>
@@ -14008,7 +14017,7 @@
         <v>2</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H261" s="2" t="s">
         <v>3</v>
@@ -14021,29 +14030,29 @@
       </c>
       <c r="K261" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>В</v>
+        <v>Г</v>
       </c>
       <c r="L261" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>В</v>
+        <v>Г</v>
       </c>
       <c r="M261" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>В</v>
+        <v>Г</v>
       </c>
       <c r="N261" s="3" t="str">
-        <f>DEC2HEX(O261)</f>
-        <v>2723</v>
+        <f t="shared" si="15"/>
+        <v>2724</v>
       </c>
       <c r="O261">
-        <f>O260+1</f>
-        <v>10019</v>
+        <f t="shared" si="16"/>
+        <v>10020</v>
       </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Г</v>
+        <v>Д</v>
       </c>
       <c r="B262" s="2">
         <v>4</v>
@@ -14061,7 +14070,7 @@
         <v>2</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>3</v>
@@ -14074,29 +14083,29 @@
       </c>
       <c r="K262" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Г</v>
+        <v>Д</v>
       </c>
       <c r="L262" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Г</v>
+        <v>Д</v>
       </c>
       <c r="M262" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Г</v>
+        <v>Д</v>
       </c>
       <c r="N262" s="3" t="str">
-        <f>DEC2HEX(O262)</f>
-        <v>2724</v>
+        <f t="shared" si="15"/>
+        <v>2725</v>
       </c>
       <c r="O262">
-        <f>O261+1</f>
-        <v>10020</v>
+        <f t="shared" si="16"/>
+        <v>10021</v>
       </c>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Д</v>
+        <v>Е</v>
       </c>
       <c r="B263" s="2">
         <v>4</v>
@@ -14114,7 +14123,7 @@
         <v>2</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H263" s="2" t="s">
         <v>3</v>
@@ -14127,29 +14136,29 @@
       </c>
       <c r="K263" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Д</v>
+        <v>Е</v>
       </c>
       <c r="L263" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Д</v>
+        <v>Е</v>
       </c>
       <c r="M263" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Д</v>
+        <v>Е</v>
       </c>
       <c r="N263" s="3" t="str">
-        <f>DEC2HEX(O263)</f>
-        <v>2725</v>
+        <f t="shared" si="15"/>
+        <v>2726</v>
       </c>
       <c r="O263">
-        <f>O262+1</f>
-        <v>10021</v>
+        <f t="shared" si="16"/>
+        <v>10022</v>
       </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Е</v>
+        <v>Ё</v>
       </c>
       <c r="B264" s="2">
         <v>4</v>
@@ -14167,7 +14176,7 @@
         <v>2</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H264" s="2" t="s">
         <v>3</v>
@@ -14180,29 +14189,29 @@
       </c>
       <c r="K264" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Е</v>
+        <v>Ё</v>
       </c>
       <c r="L264" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Е</v>
+        <v>Ё</v>
       </c>
       <c r="M264" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Е</v>
+        <v>Ё</v>
       </c>
       <c r="N264" s="3" t="str">
-        <f>DEC2HEX(O264)</f>
-        <v>2726</v>
+        <f t="shared" si="15"/>
+        <v>2727</v>
       </c>
       <c r="O264">
-        <f>O263+1</f>
-        <v>10022</v>
+        <f t="shared" si="16"/>
+        <v>10023</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Ё</v>
+        <v>Ж</v>
       </c>
       <c r="B265" s="2">
         <v>4</v>
@@ -14220,7 +14229,7 @@
         <v>2</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H265" s="2" t="s">
         <v>3</v>
@@ -14233,29 +14242,29 @@
       </c>
       <c r="K265" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ё</v>
+        <v>Ж</v>
       </c>
       <c r="L265" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ё</v>
+        <v>Ж</v>
       </c>
       <c r="M265" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ё</v>
+        <v>Ж</v>
       </c>
       <c r="N265" s="3" t="str">
-        <f>DEC2HEX(O265)</f>
-        <v>2727</v>
+        <f t="shared" si="15"/>
+        <v>2728</v>
       </c>
       <c r="O265">
-        <f>O264+1</f>
-        <v>10023</v>
+        <f t="shared" si="16"/>
+        <v>10024</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Ж</v>
+        <v>З</v>
       </c>
       <c r="B266" s="2">
         <v>4</v>
@@ -14273,7 +14282,7 @@
         <v>2</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>3</v>
@@ -14286,29 +14295,29 @@
       </c>
       <c r="K266" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ж</v>
+        <v>З</v>
       </c>
       <c r="L266" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ж</v>
+        <v>З</v>
       </c>
       <c r="M266" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ж</v>
+        <v>З</v>
       </c>
       <c r="N266" s="3" t="str">
-        <f>DEC2HEX(O266)</f>
-        <v>2728</v>
+        <f t="shared" si="15"/>
+        <v>2729</v>
       </c>
       <c r="O266">
-        <f>O265+1</f>
-        <v>10024</v>
+        <f t="shared" si="16"/>
+        <v>10025</v>
       </c>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>З</v>
+        <v>И</v>
       </c>
       <c r="B267" s="2">
         <v>4</v>
@@ -14326,7 +14335,7 @@
         <v>2</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H267" s="2" t="s">
         <v>3</v>
@@ -14339,29 +14348,29 @@
       </c>
       <c r="K267" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>З</v>
+        <v>И</v>
       </c>
       <c r="L267" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>З</v>
+        <v>И</v>
       </c>
       <c r="M267" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>З</v>
+        <v>И</v>
       </c>
       <c r="N267" s="3" t="str">
-        <f>DEC2HEX(O267)</f>
-        <v>2729</v>
+        <f t="shared" si="15"/>
+        <v>272A</v>
       </c>
       <c r="O267">
-        <f>O266+1</f>
-        <v>10025</v>
+        <f t="shared" si="16"/>
+        <v>10026</v>
       </c>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>И</v>
+        <v>Й</v>
       </c>
       <c r="B268" s="2">
         <v>4</v>
@@ -14379,7 +14388,7 @@
         <v>2</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H268" s="2" t="s">
         <v>3</v>
@@ -14392,29 +14401,29 @@
       </c>
       <c r="K268" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>И</v>
+        <v>Й</v>
       </c>
       <c r="L268" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>И</v>
+        <v>Й</v>
       </c>
       <c r="M268" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>И</v>
+        <v>Й</v>
       </c>
       <c r="N268" s="3" t="str">
-        <f>DEC2HEX(O268)</f>
-        <v>272A</v>
+        <f t="shared" si="15"/>
+        <v>272B</v>
       </c>
       <c r="O268">
-        <f>O267+1</f>
-        <v>10026</v>
+        <f t="shared" si="16"/>
+        <v>10027</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Й</v>
+        <v>К</v>
       </c>
       <c r="B269" s="2">
         <v>4</v>
@@ -14432,7 +14441,7 @@
         <v>2</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H269" s="2" t="s">
         <v>3</v>
@@ -14445,29 +14454,29 @@
       </c>
       <c r="K269" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Й</v>
+        <v>К</v>
       </c>
       <c r="L269" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Й</v>
+        <v>К</v>
       </c>
       <c r="M269" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Й</v>
+        <v>К</v>
       </c>
       <c r="N269" s="3" t="str">
-        <f>DEC2HEX(O269)</f>
-        <v>272B</v>
+        <f t="shared" si="15"/>
+        <v>272C</v>
       </c>
       <c r="O269">
-        <f>O268+1</f>
-        <v>10027</v>
+        <f t="shared" si="16"/>
+        <v>10028</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>К</v>
+        <v>Л</v>
       </c>
       <c r="B270" s="2">
         <v>4</v>
@@ -14485,7 +14494,7 @@
         <v>2</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H270" s="2" t="s">
         <v>3</v>
@@ -14498,29 +14507,29 @@
       </c>
       <c r="K270" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>К</v>
+        <v>Л</v>
       </c>
       <c r="L270" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>К</v>
+        <v>Л</v>
       </c>
       <c r="M270" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>К</v>
+        <v>Л</v>
       </c>
       <c r="N270" s="3" t="str">
-        <f>DEC2HEX(O270)</f>
-        <v>272C</v>
+        <f t="shared" si="15"/>
+        <v>272D</v>
       </c>
       <c r="O270">
-        <f>O269+1</f>
-        <v>10028</v>
+        <f t="shared" si="16"/>
+        <v>10029</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Л</v>
+        <v>М</v>
       </c>
       <c r="B271" s="2">
         <v>4</v>
@@ -14538,7 +14547,7 @@
         <v>2</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>3</v>
@@ -14551,29 +14560,29 @@
       </c>
       <c r="K271" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Л</v>
+        <v>М</v>
       </c>
       <c r="L271" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Л</v>
+        <v>М</v>
       </c>
       <c r="M271" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Л</v>
+        <v>М</v>
       </c>
       <c r="N271" s="3" t="str">
-        <f>DEC2HEX(O271)</f>
-        <v>272D</v>
+        <f t="shared" si="15"/>
+        <v>272E</v>
       </c>
       <c r="O271">
-        <f>O270+1</f>
-        <v>10029</v>
+        <f t="shared" si="16"/>
+        <v>10030</v>
       </c>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>М</v>
+        <v>Н</v>
       </c>
       <c r="B272" s="2">
         <v>4</v>
@@ -14591,7 +14600,7 @@
         <v>2</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H272" s="2" t="s">
         <v>3</v>
@@ -14604,29 +14613,29 @@
       </c>
       <c r="K272" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>М</v>
+        <v>Н</v>
       </c>
       <c r="L272" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>М</v>
+        <v>Н</v>
       </c>
       <c r="M272" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>М</v>
+        <v>Н</v>
       </c>
       <c r="N272" s="3" t="str">
-        <f>DEC2HEX(O272)</f>
-        <v>272E</v>
+        <f t="shared" si="15"/>
+        <v>272F</v>
       </c>
       <c r="O272">
-        <f>O271+1</f>
-        <v>10030</v>
+        <f t="shared" si="16"/>
+        <v>10031</v>
       </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Н</v>
+        <v>О</v>
       </c>
       <c r="B273" s="2">
         <v>4</v>
@@ -14644,7 +14653,7 @@
         <v>2</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>3</v>
@@ -14657,29 +14666,29 @@
       </c>
       <c r="K273" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Н</v>
+        <v>О</v>
       </c>
       <c r="L273" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Н</v>
+        <v>О</v>
       </c>
       <c r="M273" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Н</v>
+        <v>О</v>
       </c>
       <c r="N273" s="3" t="str">
-        <f>DEC2HEX(O273)</f>
-        <v>272F</v>
+        <f t="shared" si="15"/>
+        <v>2730</v>
       </c>
       <c r="O273">
-        <f>O272+1</f>
-        <v>10031</v>
+        <f t="shared" si="16"/>
+        <v>10032</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>О</v>
+        <v>П</v>
       </c>
       <c r="B274" s="2">
         <v>4</v>
@@ -14697,7 +14706,7 @@
         <v>2</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H274" s="2" t="s">
         <v>3</v>
@@ -14710,29 +14719,29 @@
       </c>
       <c r="K274" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>О</v>
+        <v>П</v>
       </c>
       <c r="L274" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>О</v>
+        <v>П</v>
       </c>
       <c r="M274" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>О</v>
+        <v>П</v>
       </c>
       <c r="N274" s="3" t="str">
-        <f>DEC2HEX(O274)</f>
-        <v>2730</v>
+        <f t="shared" si="15"/>
+        <v>2731</v>
       </c>
       <c r="O274">
-        <f>O273+1</f>
-        <v>10032</v>
+        <f t="shared" si="16"/>
+        <v>10033</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>П</v>
+        <v>Р</v>
       </c>
       <c r="B275" s="2">
         <v>4</v>
@@ -14750,7 +14759,7 @@
         <v>2</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H275" s="2" t="s">
         <v>3</v>
@@ -14763,29 +14772,29 @@
       </c>
       <c r="K275" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>П</v>
+        <v>Р</v>
       </c>
       <c r="L275" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>П</v>
+        <v>Р</v>
       </c>
       <c r="M275" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>П</v>
+        <v>Р</v>
       </c>
       <c r="N275" s="3" t="str">
-        <f>DEC2HEX(O275)</f>
-        <v>2731</v>
+        <f t="shared" si="15"/>
+        <v>2732</v>
       </c>
       <c r="O275">
-        <f>O274+1</f>
-        <v>10033</v>
+        <f t="shared" si="16"/>
+        <v>10034</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Р</v>
+        <v>С</v>
       </c>
       <c r="B276" s="2">
         <v>4</v>
@@ -14803,7 +14812,7 @@
         <v>2</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H276" s="2" t="s">
         <v>3</v>
@@ -14816,29 +14825,29 @@
       </c>
       <c r="K276" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Р</v>
+        <v>С</v>
       </c>
       <c r="L276" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Р</v>
+        <v>С</v>
       </c>
       <c r="M276" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Р</v>
+        <v>С</v>
       </c>
       <c r="N276" s="3" t="str">
-        <f>DEC2HEX(O276)</f>
-        <v>2732</v>
+        <f t="shared" si="15"/>
+        <v>2733</v>
       </c>
       <c r="O276">
-        <f>O275+1</f>
-        <v>10034</v>
+        <f t="shared" si="16"/>
+        <v>10035</v>
       </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>С</v>
+        <v>Т</v>
       </c>
       <c r="B277" s="2">
         <v>4</v>
@@ -14856,7 +14865,7 @@
         <v>2</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H277" s="2" t="s">
         <v>3</v>
@@ -14869,29 +14878,29 @@
       </c>
       <c r="K277" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>С</v>
+        <v>Т</v>
       </c>
       <c r="L277" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>С</v>
+        <v>Т</v>
       </c>
       <c r="M277" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>С</v>
+        <v>Т</v>
       </c>
       <c r="N277" s="3" t="str">
-        <f>DEC2HEX(O277)</f>
-        <v>2733</v>
+        <f t="shared" si="15"/>
+        <v>2734</v>
       </c>
       <c r="O277">
-        <f>O276+1</f>
-        <v>10035</v>
+        <f t="shared" si="16"/>
+        <v>10036</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Т</v>
+        <v>У</v>
       </c>
       <c r="B278" s="2">
         <v>4</v>
@@ -14909,7 +14918,7 @@
         <v>2</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H278" s="2" t="s">
         <v>3</v>
@@ -14922,29 +14931,29 @@
       </c>
       <c r="K278" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Т</v>
+        <v>У</v>
       </c>
       <c r="L278" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Т</v>
+        <v>У</v>
       </c>
       <c r="M278" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Т</v>
+        <v>У</v>
       </c>
       <c r="N278" s="3" t="str">
-        <f>DEC2HEX(O278)</f>
-        <v>2734</v>
+        <f t="shared" si="15"/>
+        <v>2735</v>
       </c>
       <c r="O278">
-        <f>O277+1</f>
-        <v>10036</v>
+        <f t="shared" si="16"/>
+        <v>10037</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>У</v>
+        <v>Ф</v>
       </c>
       <c r="B279" s="2">
         <v>4</v>
@@ -14962,7 +14971,7 @@
         <v>2</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H279" s="2" t="s">
         <v>3</v>
@@ -14975,29 +14984,29 @@
       </c>
       <c r="K279" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>У</v>
+        <v>Ф</v>
       </c>
       <c r="L279" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>У</v>
+        <v>Ф</v>
       </c>
       <c r="M279" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>У</v>
+        <v>Ф</v>
       </c>
       <c r="N279" s="3" t="str">
-        <f>DEC2HEX(O279)</f>
-        <v>2735</v>
+        <f t="shared" si="15"/>
+        <v>2736</v>
       </c>
       <c r="O279">
-        <f>O278+1</f>
-        <v>10037</v>
+        <f t="shared" si="16"/>
+        <v>10038</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Ф</v>
+        <v>Х</v>
       </c>
       <c r="B280" s="2">
         <v>4</v>
@@ -15015,7 +15024,7 @@
         <v>2</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H280" s="2" t="s">
         <v>3</v>
@@ -15028,29 +15037,29 @@
       </c>
       <c r="K280" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ф</v>
+        <v>Х</v>
       </c>
       <c r="L280" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ф</v>
+        <v>Х</v>
       </c>
       <c r="M280" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ф</v>
+        <v>Х</v>
       </c>
       <c r="N280" s="3" t="str">
-        <f>DEC2HEX(O280)</f>
-        <v>2736</v>
+        <f t="shared" si="15"/>
+        <v>2737</v>
       </c>
       <c r="O280">
-        <f>O279+1</f>
-        <v>10038</v>
+        <f t="shared" si="16"/>
+        <v>10039</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Х</v>
+        <v>Ц</v>
       </c>
       <c r="B281" s="2">
         <v>4</v>
@@ -15068,7 +15077,7 @@
         <v>2</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H281" s="2" t="s">
         <v>3</v>
@@ -15081,29 +15090,29 @@
       </c>
       <c r="K281" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Х</v>
+        <v>Ц</v>
       </c>
       <c r="L281" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Х</v>
+        <v>Ц</v>
       </c>
       <c r="M281" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Х</v>
+        <v>Ц</v>
       </c>
       <c r="N281" s="3" t="str">
-        <f>DEC2HEX(O281)</f>
-        <v>2737</v>
+        <f t="shared" si="15"/>
+        <v>2738</v>
       </c>
       <c r="O281">
-        <f>O280+1</f>
-        <v>10039</v>
+        <f t="shared" si="16"/>
+        <v>10040</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Ц</v>
+        <v>Ч</v>
       </c>
       <c r="B282" s="2">
         <v>4</v>
@@ -15121,7 +15130,7 @@
         <v>2</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H282" s="2" t="s">
         <v>3</v>
@@ -15134,29 +15143,29 @@
       </c>
       <c r="K282" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ц</v>
+        <v>Ч</v>
       </c>
       <c r="L282" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ц</v>
+        <v>Ч</v>
       </c>
       <c r="M282" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ц</v>
+        <v>Ч</v>
       </c>
       <c r="N282" s="3" t="str">
-        <f>DEC2HEX(O282)</f>
-        <v>2738</v>
+        <f t="shared" si="15"/>
+        <v>2739</v>
       </c>
       <c r="O282">
-        <f>O281+1</f>
-        <v>10040</v>
+        <f t="shared" si="16"/>
+        <v>10041</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Ч</v>
+        <v>Ш</v>
       </c>
       <c r="B283" s="2">
         <v>4</v>
@@ -15174,7 +15183,7 @@
         <v>2</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H283" s="2" t="s">
         <v>3</v>
@@ -15187,29 +15196,29 @@
       </c>
       <c r="K283" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ч</v>
+        <v>Ш</v>
       </c>
       <c r="L283" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ч</v>
+        <v>Ш</v>
       </c>
       <c r="M283" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ч</v>
+        <v>Ш</v>
       </c>
       <c r="N283" s="3" t="str">
-        <f>DEC2HEX(O283)</f>
-        <v>2739</v>
+        <f t="shared" si="15"/>
+        <v>273A</v>
       </c>
       <c r="O283">
-        <f>O282+1</f>
-        <v>10041</v>
+        <f t="shared" si="16"/>
+        <v>10042</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Ш</v>
+        <v>Щ</v>
       </c>
       <c r="B284" s="2">
         <v>4</v>
@@ -15227,7 +15236,7 @@
         <v>2</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H284" s="2" t="s">
         <v>3</v>
@@ -15240,29 +15249,29 @@
       </c>
       <c r="K284" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ш</v>
+        <v>Щ</v>
       </c>
       <c r="L284" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ш</v>
+        <v>Щ</v>
       </c>
       <c r="M284" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ш</v>
+        <v>Щ</v>
       </c>
       <c r="N284" s="3" t="str">
-        <f>DEC2HEX(O284)</f>
-        <v>273A</v>
+        <f t="shared" si="15"/>
+        <v>273B</v>
       </c>
       <c r="O284">
-        <f>O283+1</f>
-        <v>10042</v>
+        <f t="shared" si="16"/>
+        <v>10043</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Щ</v>
+        <v>Ъ</v>
       </c>
       <c r="B285" s="2">
         <v>4</v>
@@ -15280,7 +15289,7 @@
         <v>2</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H285" s="2" t="s">
         <v>3</v>
@@ -15293,29 +15302,29 @@
       </c>
       <c r="K285" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Щ</v>
+        <v>Ъ</v>
       </c>
       <c r="L285" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Щ</v>
+        <v>Ъ</v>
       </c>
       <c r="M285" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Щ</v>
+        <v>Ъ</v>
       </c>
       <c r="N285" s="3" t="str">
-        <f>DEC2HEX(O285)</f>
-        <v>273B</v>
+        <f t="shared" si="15"/>
+        <v>273C</v>
       </c>
       <c r="O285">
-        <f>O284+1</f>
-        <v>10043</v>
+        <f t="shared" si="16"/>
+        <v>10044</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Ъ</v>
+        <v>Ы</v>
       </c>
       <c r="B286" s="2">
         <v>4</v>
@@ -15333,7 +15342,7 @@
         <v>2</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H286" s="2" t="s">
         <v>3</v>
@@ -15346,29 +15355,29 @@
       </c>
       <c r="K286" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ъ</v>
+        <v>Ы</v>
       </c>
       <c r="L286" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ъ</v>
+        <v>Ы</v>
       </c>
       <c r="M286" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ъ</v>
+        <v>Ы</v>
       </c>
       <c r="N286" s="3" t="str">
-        <f>DEC2HEX(O286)</f>
-        <v>273C</v>
+        <f t="shared" si="15"/>
+        <v>273D</v>
       </c>
       <c r="O286">
-        <f>O285+1</f>
-        <v>10044</v>
+        <f t="shared" si="16"/>
+        <v>10045</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Ы</v>
+        <v>Ь</v>
       </c>
       <c r="B287" s="2">
         <v>4</v>
@@ -15386,7 +15395,7 @@
         <v>2</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H287" s="2" t="s">
         <v>3</v>
@@ -15399,29 +15408,29 @@
       </c>
       <c r="K287" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ы</v>
+        <v>Ь</v>
       </c>
       <c r="L287" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ы</v>
+        <v>Ь</v>
       </c>
       <c r="M287" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ы</v>
+        <v>Ь</v>
       </c>
       <c r="N287" s="3" t="str">
-        <f>DEC2HEX(O287)</f>
-        <v>273D</v>
+        <f t="shared" si="15"/>
+        <v>273E</v>
       </c>
       <c r="O287">
-        <f>O286+1</f>
-        <v>10045</v>
+        <f t="shared" si="16"/>
+        <v>10046</v>
       </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Ь</v>
+        <v>Э</v>
       </c>
       <c r="B288" s="2">
         <v>4</v>
@@ -15439,7 +15448,7 @@
         <v>2</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H288" s="2" t="s">
         <v>3</v>
@@ -15452,29 +15461,29 @@
       </c>
       <c r="K288" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ь</v>
+        <v>Э</v>
       </c>
       <c r="L288" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ь</v>
+        <v>Э</v>
       </c>
       <c r="M288" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ь</v>
+        <v>Э</v>
       </c>
       <c r="N288" s="3" t="str">
-        <f>DEC2HEX(O288)</f>
-        <v>273E</v>
+        <f t="shared" si="15"/>
+        <v>273F</v>
       </c>
       <c r="O288">
-        <f>O287+1</f>
-        <v>10046</v>
+        <f t="shared" si="16"/>
+        <v>10047</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Э</v>
+        <v>Ю</v>
       </c>
       <c r="B289" s="2">
         <v>4</v>
@@ -15492,7 +15501,7 @@
         <v>2</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H289" s="2" t="s">
         <v>3</v>
@@ -15505,29 +15514,29 @@
       </c>
       <c r="K289" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Э</v>
+        <v>Ю</v>
       </c>
       <c r="L289" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Э</v>
+        <v>Ю</v>
       </c>
       <c r="M289" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Э</v>
+        <v>Ю</v>
       </c>
       <c r="N289" s="3" t="str">
-        <f>DEC2HEX(O289)</f>
-        <v>273F</v>
+        <f t="shared" si="15"/>
+        <v>2740</v>
       </c>
       <c r="O289">
-        <f>O288+1</f>
-        <v>10047</v>
+        <f t="shared" si="16"/>
+        <v>10048</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Ю</v>
+        <v>Я</v>
       </c>
       <c r="B290" s="2">
         <v>4</v>
@@ -15545,7 +15554,7 @@
         <v>2</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H290" s="2" t="s">
         <v>3</v>
@@ -15558,29 +15567,29 @@
       </c>
       <c r="K290" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ю</v>
+        <v>Я</v>
       </c>
       <c r="L290" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ю</v>
+        <v>Я</v>
       </c>
       <c r="M290" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Ю</v>
+        <v>Я</v>
       </c>
       <c r="N290" s="3" t="str">
-        <f>DEC2HEX(O290)</f>
-        <v>2740</v>
+        <f t="shared" si="15"/>
+        <v>2741</v>
       </c>
       <c r="O290">
-        <f>O289+1</f>
-        <v>10048</v>
+        <f t="shared" si="16"/>
+        <v>10049</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Я</v>
+        <v>а</v>
       </c>
       <c r="B291" s="2">
         <v>4</v>
@@ -15598,7 +15607,7 @@
         <v>2</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H291" s="2" t="s">
         <v>3</v>
@@ -15611,29 +15620,28 @@
       </c>
       <c r="K291" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Я</v>
+        <v>а</v>
       </c>
       <c r="L291" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Я</v>
+        <v>а</v>
       </c>
       <c r="M291" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Я</v>
-      </c>
-      <c r="N291" s="3" t="str">
-        <f>DEC2HEX(O291)</f>
-        <v>2741</v>
+        <v>а</v>
+      </c>
+      <c r="N291" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="O291">
-        <f>O290+1</f>
-        <v>10049</v>
+        <f>HEX2DEC(N291)</f>
+        <v>10065</v>
       </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>а</v>
+        <v>б</v>
       </c>
       <c r="B292" s="2">
         <v>4</v>
@@ -15651,7 +15659,7 @@
         <v>2</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H292" s="2" t="s">
         <v>3</v>
@@ -15664,28 +15672,29 @@
       </c>
       <c r="K292" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>а</v>
+        <v>б</v>
       </c>
       <c r="L292" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>а</v>
+        <v>б</v>
       </c>
       <c r="M292" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>а</v>
-      </c>
-      <c r="N292" s="3" t="s">
-        <v>345</v>
+        <v>б</v>
+      </c>
+      <c r="N292" s="3" t="str">
+        <f>DEC2HEX(O292)</f>
+        <v>2752</v>
       </c>
       <c r="O292">
-        <f>HEX2DEC(N292)</f>
-        <v>10065</v>
+        <f>O291+1</f>
+        <v>10066</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>б</v>
+        <v>в</v>
       </c>
       <c r="B293" s="2">
         <v>4</v>
@@ -15703,7 +15712,7 @@
         <v>2</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H293" s="2" t="s">
         <v>3</v>
@@ -15716,29 +15725,29 @@
       </c>
       <c r="K293" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>б</v>
+        <v>в</v>
       </c>
       <c r="L293" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>б</v>
+        <v>в</v>
       </c>
       <c r="M293" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>б</v>
+        <v>в</v>
       </c>
       <c r="N293" s="3" t="str">
         <f>DEC2HEX(O293)</f>
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="O293">
         <f>O292+1</f>
-        <v>10066</v>
+        <v>10067</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>в</v>
+        <v>г</v>
       </c>
       <c r="B294" s="2">
         <v>4</v>
@@ -15756,7 +15765,7 @@
         <v>2</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H294" s="2" t="s">
         <v>3</v>
@@ -15769,29 +15778,29 @@
       </c>
       <c r="K294" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>в</v>
+        <v>г</v>
       </c>
       <c r="L294" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>в</v>
+        <v>г</v>
       </c>
       <c r="M294" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>в</v>
+        <v>г</v>
       </c>
       <c r="N294" s="3" t="str">
-        <f>DEC2HEX(O294)</f>
-        <v>2753</v>
+        <f t="shared" ref="N294:N323" si="17">DEC2HEX(O294)</f>
+        <v>2754</v>
       </c>
       <c r="O294">
-        <f>O293+1</f>
-        <v>10067</v>
+        <f t="shared" ref="O294:O311" si="18">O293+1</f>
+        <v>10068</v>
       </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>г</v>
+        <v>д</v>
       </c>
       <c r="B295" s="2">
         <v>4</v>
@@ -15809,7 +15818,7 @@
         <v>2</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H295" s="2" t="s">
         <v>3</v>
@@ -15821,30 +15830,30 @@
         <v>3</v>
       </c>
       <c r="K295" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>г</v>
+        <f t="shared" ref="K295:M312" si="19">CHAR(HEX2DEC($N295))</f>
+        <v>д</v>
       </c>
       <c r="L295" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>г</v>
+        <f t="shared" si="19"/>
+        <v>д</v>
       </c>
       <c r="M295" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>г</v>
+        <f t="shared" si="19"/>
+        <v>д</v>
       </c>
       <c r="N295" s="3" t="str">
-        <f t="shared" ref="N295:N324" si="15">DEC2HEX(O295)</f>
-        <v>2754</v>
+        <f t="shared" si="17"/>
+        <v>2755</v>
       </c>
       <c r="O295">
-        <f t="shared" ref="O295:O312" si="16">O294+1</f>
-        <v>10068</v>
+        <f t="shared" si="18"/>
+        <v>10069</v>
       </c>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>д</v>
+        <v>е</v>
       </c>
       <c r="B296" s="2">
         <v>4</v>
@@ -15862,7 +15871,7 @@
         <v>2</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H296" s="2" t="s">
         <v>3</v>
@@ -15874,30 +15883,30 @@
         <v>3</v>
       </c>
       <c r="K296" s="2" t="str">
-        <f t="shared" ref="K296:M313" si="17">CHAR(HEX2DEC($N296))</f>
-        <v>д</v>
+        <f t="shared" si="19"/>
+        <v>е</v>
       </c>
       <c r="L296" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>е</v>
+      </c>
+      <c r="M296" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>е</v>
+      </c>
+      <c r="N296" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>д</v>
-      </c>
-      <c r="M296" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>д</v>
-      </c>
-      <c r="N296" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="O296">
-        <f t="shared" si="16"/>
-        <v>10069</v>
+        <f t="shared" si="18"/>
+        <v>10070</v>
       </c>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>е</v>
+        <v>ё</v>
       </c>
       <c r="B297" s="2">
         <v>4</v>
@@ -15915,7 +15924,7 @@
         <v>2</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H297" s="2" t="s">
         <v>3</v>
@@ -15927,30 +15936,30 @@
         <v>3</v>
       </c>
       <c r="K297" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>ё</v>
+      </c>
+      <c r="L297" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>ё</v>
+      </c>
+      <c r="M297" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>ё</v>
+      </c>
+      <c r="N297" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>е</v>
-      </c>
-      <c r="L297" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>е</v>
-      </c>
-      <c r="M297" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>е</v>
-      </c>
-      <c r="N297" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="O297">
-        <f t="shared" si="16"/>
-        <v>10070</v>
+        <f t="shared" si="18"/>
+        <v>10071</v>
       </c>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>ё</v>
+        <v>ж</v>
       </c>
       <c r="B298" s="2">
         <v>4</v>
@@ -15968,7 +15977,7 @@
         <v>2</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H298" s="2" t="s">
         <v>3</v>
@@ -15980,30 +15989,30 @@
         <v>3</v>
       </c>
       <c r="K298" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>ж</v>
+      </c>
+      <c r="L298" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>ж</v>
+      </c>
+      <c r="M298" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>ж</v>
+      </c>
+      <c r="N298" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>ё</v>
-      </c>
-      <c r="L298" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>ё</v>
-      </c>
-      <c r="M298" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>ё</v>
-      </c>
-      <c r="N298" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="O298">
-        <f t="shared" si="16"/>
-        <v>10071</v>
+        <f t="shared" si="18"/>
+        <v>10072</v>
       </c>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>ж</v>
+        <v>з</v>
       </c>
       <c r="B299" s="2">
         <v>4</v>
@@ -16021,7 +16030,7 @@
         <v>2</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H299" s="2" t="s">
         <v>3</v>
@@ -16033,30 +16042,30 @@
         <v>3</v>
       </c>
       <c r="K299" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>з</v>
+      </c>
+      <c r="L299" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>з</v>
+      </c>
+      <c r="M299" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>з</v>
+      </c>
+      <c r="N299" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>ж</v>
-      </c>
-      <c r="L299" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>ж</v>
-      </c>
-      <c r="M299" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>ж</v>
-      </c>
-      <c r="N299" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="O299">
-        <f t="shared" si="16"/>
-        <v>10072</v>
+        <f t="shared" si="18"/>
+        <v>10073</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>з</v>
+        <v>и</v>
       </c>
       <c r="B300" s="2">
         <v>4</v>
@@ -16074,7 +16083,7 @@
         <v>2</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H300" s="2" t="s">
         <v>3</v>
@@ -16086,30 +16095,30 @@
         <v>3</v>
       </c>
       <c r="K300" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>и</v>
+      </c>
+      <c r="L300" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>и</v>
+      </c>
+      <c r="M300" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>и</v>
+      </c>
+      <c r="N300" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>з</v>
-      </c>
-      <c r="L300" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>з</v>
-      </c>
-      <c r="M300" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>з</v>
-      </c>
-      <c r="N300" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2759</v>
+        <v>275A</v>
       </c>
       <c r="O300">
-        <f t="shared" si="16"/>
-        <v>10073</v>
+        <f t="shared" si="18"/>
+        <v>10074</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>и</v>
+        <v>й</v>
       </c>
       <c r="B301" s="2">
         <v>4</v>
@@ -16127,7 +16136,7 @@
         <v>2</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H301" s="2" t="s">
         <v>3</v>
@@ -16139,30 +16148,30 @@
         <v>3</v>
       </c>
       <c r="K301" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>й</v>
+      </c>
+      <c r="L301" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>й</v>
+      </c>
+      <c r="M301" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>й</v>
+      </c>
+      <c r="N301" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>и</v>
-      </c>
-      <c r="L301" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>и</v>
-      </c>
-      <c r="M301" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>и</v>
-      </c>
-      <c r="N301" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>275A</v>
+        <v>275B</v>
       </c>
       <c r="O301">
-        <f t="shared" si="16"/>
-        <v>10074</v>
+        <f t="shared" si="18"/>
+        <v>10075</v>
       </c>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>й</v>
+        <v>к</v>
       </c>
       <c r="B302" s="2">
         <v>4</v>
@@ -16180,7 +16189,7 @@
         <v>2</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H302" s="2" t="s">
         <v>3</v>
@@ -16192,30 +16201,30 @@
         <v>3</v>
       </c>
       <c r="K302" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>к</v>
+      </c>
+      <c r="L302" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>к</v>
+      </c>
+      <c r="M302" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>к</v>
+      </c>
+      <c r="N302" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>й</v>
-      </c>
-      <c r="L302" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>й</v>
-      </c>
-      <c r="M302" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>й</v>
-      </c>
-      <c r="N302" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>275B</v>
+        <v>275C</v>
       </c>
       <c r="O302">
-        <f t="shared" si="16"/>
-        <v>10075</v>
+        <f t="shared" si="18"/>
+        <v>10076</v>
       </c>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>к</v>
+        <v>л</v>
       </c>
       <c r="B303" s="2">
         <v>4</v>
@@ -16233,7 +16242,7 @@
         <v>2</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H303" s="2" t="s">
         <v>3</v>
@@ -16245,30 +16254,30 @@
         <v>3</v>
       </c>
       <c r="K303" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>л</v>
+      </c>
+      <c r="L303" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>л</v>
+      </c>
+      <c r="M303" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>л</v>
+      </c>
+      <c r="N303" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>к</v>
-      </c>
-      <c r="L303" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>к</v>
-      </c>
-      <c r="M303" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>к</v>
-      </c>
-      <c r="N303" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>275C</v>
+        <v>275D</v>
       </c>
       <c r="O303">
-        <f t="shared" si="16"/>
-        <v>10076</v>
+        <f t="shared" si="18"/>
+        <v>10077</v>
       </c>
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>л</v>
+        <v>м</v>
       </c>
       <c r="B304" s="2">
         <v>4</v>
@@ -16286,7 +16295,7 @@
         <v>2</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H304" s="2" t="s">
         <v>3</v>
@@ -16298,30 +16307,30 @@
         <v>3</v>
       </c>
       <c r="K304" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>м</v>
+      </c>
+      <c r="L304" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>м</v>
+      </c>
+      <c r="M304" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>м</v>
+      </c>
+      <c r="N304" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>л</v>
-      </c>
-      <c r="L304" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>л</v>
-      </c>
-      <c r="M304" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>л</v>
-      </c>
-      <c r="N304" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>275D</v>
+        <v>275E</v>
       </c>
       <c r="O304">
-        <f t="shared" si="16"/>
-        <v>10077</v>
+        <f t="shared" si="18"/>
+        <v>10078</v>
       </c>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>м</v>
+        <v>н</v>
       </c>
       <c r="B305" s="2">
         <v>4</v>
@@ -16339,7 +16348,7 @@
         <v>2</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H305" s="2" t="s">
         <v>3</v>
@@ -16351,30 +16360,30 @@
         <v>3</v>
       </c>
       <c r="K305" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>н</v>
+      </c>
+      <c r="L305" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>н</v>
+      </c>
+      <c r="M305" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>н</v>
+      </c>
+      <c r="N305" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>м</v>
-      </c>
-      <c r="L305" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>м</v>
-      </c>
-      <c r="M305" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>м</v>
-      </c>
-      <c r="N305" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>275E</v>
+        <v>275F</v>
       </c>
       <c r="O305">
-        <f t="shared" si="16"/>
-        <v>10078</v>
+        <f t="shared" si="18"/>
+        <v>10079</v>
       </c>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>н</v>
+        <v>о</v>
       </c>
       <c r="B306" s="2">
         <v>4</v>
@@ -16392,7 +16401,7 @@
         <v>2</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H306" s="2" t="s">
         <v>3</v>
@@ -16404,30 +16413,30 @@
         <v>3</v>
       </c>
       <c r="K306" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>о</v>
+      </c>
+      <c r="L306" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>о</v>
+      </c>
+      <c r="M306" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>о</v>
+      </c>
+      <c r="N306" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>н</v>
-      </c>
-      <c r="L306" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>н</v>
-      </c>
-      <c r="M306" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>н</v>
-      </c>
-      <c r="N306" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>275F</v>
+        <v>2760</v>
       </c>
       <c r="O306">
-        <f t="shared" si="16"/>
-        <v>10079</v>
+        <f t="shared" si="18"/>
+        <v>10080</v>
       </c>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>о</v>
+        <v>п</v>
       </c>
       <c r="B307" s="2">
         <v>4</v>
@@ -16445,7 +16454,7 @@
         <v>2</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H307" s="2" t="s">
         <v>3</v>
@@ -16457,30 +16466,30 @@
         <v>3</v>
       </c>
       <c r="K307" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>п</v>
+      </c>
+      <c r="L307" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>п</v>
+      </c>
+      <c r="M307" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>п</v>
+      </c>
+      <c r="N307" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>о</v>
-      </c>
-      <c r="L307" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>о</v>
-      </c>
-      <c r="M307" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>о</v>
-      </c>
-      <c r="N307" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="O307">
-        <f t="shared" si="16"/>
-        <v>10080</v>
+        <f t="shared" si="18"/>
+        <v>10081</v>
       </c>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>п</v>
+        <v>р</v>
       </c>
       <c r="B308" s="2">
         <v>4</v>
@@ -16498,7 +16507,7 @@
         <v>2</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H308" s="2" t="s">
         <v>3</v>
@@ -16510,30 +16519,30 @@
         <v>3</v>
       </c>
       <c r="K308" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>р</v>
+      </c>
+      <c r="L308" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>р</v>
+      </c>
+      <c r="M308" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>р</v>
+      </c>
+      <c r="N308" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>п</v>
-      </c>
-      <c r="L308" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>п</v>
-      </c>
-      <c r="M308" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>п</v>
-      </c>
-      <c r="N308" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="O308">
-        <f t="shared" si="16"/>
-        <v>10081</v>
+        <f t="shared" si="18"/>
+        <v>10082</v>
       </c>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>р</v>
+        <v>с</v>
       </c>
       <c r="B309" s="2">
         <v>4</v>
@@ -16551,7 +16560,7 @@
         <v>2</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H309" s="2" t="s">
         <v>3</v>
@@ -16563,30 +16572,30 @@
         <v>3</v>
       </c>
       <c r="K309" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>с</v>
+      </c>
+      <c r="L309" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>с</v>
+      </c>
+      <c r="M309" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>с</v>
+      </c>
+      <c r="N309" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>р</v>
-      </c>
-      <c r="L309" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>р</v>
-      </c>
-      <c r="M309" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>р</v>
-      </c>
-      <c r="N309" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="O309">
-        <f t="shared" si="16"/>
-        <v>10082</v>
+        <f t="shared" si="18"/>
+        <v>10083</v>
       </c>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>с</v>
+        <v>т</v>
       </c>
       <c r="B310" s="2">
         <v>4</v>
@@ -16604,7 +16613,7 @@
         <v>2</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H310" s="2" t="s">
         <v>3</v>
@@ -16616,30 +16625,30 @@
         <v>3</v>
       </c>
       <c r="K310" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>т</v>
+      </c>
+      <c r="L310" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>т</v>
+      </c>
+      <c r="M310" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>т</v>
+      </c>
+      <c r="N310" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>с</v>
-      </c>
-      <c r="L310" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>с</v>
-      </c>
-      <c r="M310" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>с</v>
-      </c>
-      <c r="N310" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="O310">
-        <f t="shared" si="16"/>
-        <v>10083</v>
+        <f t="shared" si="18"/>
+        <v>10084</v>
       </c>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>т</v>
+        <v>у</v>
       </c>
       <c r="B311" s="2">
         <v>4</v>
@@ -16657,7 +16666,7 @@
         <v>2</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H311" s="2" t="s">
         <v>3</v>
@@ -16669,30 +16678,30 @@
         <v>3</v>
       </c>
       <c r="K311" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>у</v>
+      </c>
+      <c r="L311" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>у</v>
+      </c>
+      <c r="M311" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>у</v>
+      </c>
+      <c r="N311" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>т</v>
-      </c>
-      <c r="L311" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>т</v>
-      </c>
-      <c r="M311" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>т</v>
-      </c>
-      <c r="N311" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="O311">
-        <f t="shared" si="16"/>
-        <v>10084</v>
+        <f t="shared" si="18"/>
+        <v>10085</v>
       </c>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>у</v>
+        <v>ф</v>
       </c>
       <c r="B312" s="2">
         <v>4</v>
@@ -16710,7 +16719,7 @@
         <v>2</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H312" s="2" t="s">
         <v>3</v>
@@ -16722,30 +16731,30 @@
         <v>3</v>
       </c>
       <c r="K312" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>ф</v>
+      </c>
+      <c r="L312" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>ф</v>
+      </c>
+      <c r="M312" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>ф</v>
+      </c>
+      <c r="N312" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>у</v>
-      </c>
-      <c r="L312" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>у</v>
-      </c>
-      <c r="M312" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>у</v>
-      </c>
-      <c r="N312" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="O312">
-        <f t="shared" si="16"/>
-        <v>10085</v>
+        <f t="shared" ref="O312:O323" si="20">O311+1</f>
+        <v>10086</v>
       </c>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>ф</v>
+        <v>х</v>
       </c>
       <c r="B313" s="2">
         <v>4</v>
@@ -16763,7 +16772,7 @@
         <v>2</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H313" s="2" t="s">
         <v>3</v>
@@ -16775,30 +16784,30 @@
         <v>3</v>
       </c>
       <c r="K313" s="2" t="str">
+        <f t="shared" ref="K313:M323" si="21">CHAR(HEX2DEC($N313))</f>
+        <v>х</v>
+      </c>
+      <c r="L313" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>х</v>
+      </c>
+      <c r="M313" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>х</v>
+      </c>
+      <c r="N313" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>ф</v>
-      </c>
-      <c r="L313" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>ф</v>
-      </c>
-      <c r="M313" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>ф</v>
-      </c>
-      <c r="N313" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="O313">
-        <f t="shared" ref="O313:O324" si="18">O312+1</f>
-        <v>10086</v>
+        <f t="shared" si="20"/>
+        <v>10087</v>
       </c>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>х</v>
+        <v>ц</v>
       </c>
       <c r="B314" s="2">
         <v>4</v>
@@ -16816,7 +16825,7 @@
         <v>2</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H314" s="2" t="s">
         <v>3</v>
@@ -16828,30 +16837,30 @@
         <v>3</v>
       </c>
       <c r="K314" s="2" t="str">
-        <f t="shared" ref="K314:M324" si="19">CHAR(HEX2DEC($N314))</f>
-        <v>х</v>
+        <f t="shared" si="21"/>
+        <v>ц</v>
       </c>
       <c r="L314" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>х</v>
+        <f t="shared" si="21"/>
+        <v>ц</v>
       </c>
       <c r="M314" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>х</v>
+        <f t="shared" si="21"/>
+        <v>ц</v>
       </c>
       <c r="N314" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2767</v>
+        <f t="shared" si="17"/>
+        <v>2768</v>
       </c>
       <c r="O314">
-        <f t="shared" si="18"/>
-        <v>10087</v>
+        <f t="shared" si="20"/>
+        <v>10088</v>
       </c>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>ц</v>
+        <v>ч</v>
       </c>
       <c r="B315" s="2">
         <v>4</v>
@@ -16869,7 +16878,7 @@
         <v>2</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H315" s="2" t="s">
         <v>3</v>
@@ -16881,30 +16890,30 @@
         <v>3</v>
       </c>
       <c r="K315" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ц</v>
+        <f t="shared" si="21"/>
+        <v>ч</v>
       </c>
       <c r="L315" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ц</v>
+        <f t="shared" si="21"/>
+        <v>ч</v>
       </c>
       <c r="M315" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ц</v>
+        <f t="shared" si="21"/>
+        <v>ч</v>
       </c>
       <c r="N315" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2768</v>
+        <f t="shared" si="17"/>
+        <v>2769</v>
       </c>
       <c r="O315">
-        <f t="shared" si="18"/>
-        <v>10088</v>
+        <f t="shared" si="20"/>
+        <v>10089</v>
       </c>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>ч</v>
+        <v>ш</v>
       </c>
       <c r="B316" s="2">
         <v>4</v>
@@ -16922,7 +16931,7 @@
         <v>2</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H316" s="2" t="s">
         <v>3</v>
@@ -16934,30 +16943,30 @@
         <v>3</v>
       </c>
       <c r="K316" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ч</v>
+        <f t="shared" si="21"/>
+        <v>ш</v>
       </c>
       <c r="L316" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ч</v>
+        <f t="shared" si="21"/>
+        <v>ш</v>
       </c>
       <c r="M316" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ч</v>
+        <f t="shared" si="21"/>
+        <v>ш</v>
       </c>
       <c r="N316" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2769</v>
+        <f t="shared" si="17"/>
+        <v>276A</v>
       </c>
       <c r="O316">
-        <f t="shared" si="18"/>
-        <v>10089</v>
+        <f t="shared" si="20"/>
+        <v>10090</v>
       </c>
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>ш</v>
+        <v>щ</v>
       </c>
       <c r="B317" s="2">
         <v>4</v>
@@ -16975,7 +16984,7 @@
         <v>2</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H317" s="2" t="s">
         <v>3</v>
@@ -16987,30 +16996,30 @@
         <v>3</v>
       </c>
       <c r="K317" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ш</v>
+        <f t="shared" si="21"/>
+        <v>щ</v>
       </c>
       <c r="L317" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ш</v>
+        <f t="shared" si="21"/>
+        <v>щ</v>
       </c>
       <c r="M317" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ш</v>
+        <f t="shared" si="21"/>
+        <v>щ</v>
       </c>
       <c r="N317" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>276A</v>
+        <f t="shared" si="17"/>
+        <v>276B</v>
       </c>
       <c r="O317">
-        <f t="shared" si="18"/>
-        <v>10090</v>
+        <f t="shared" si="20"/>
+        <v>10091</v>
       </c>
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>щ</v>
+        <v>ъ</v>
       </c>
       <c r="B318" s="2">
         <v>4</v>
@@ -17028,7 +17037,7 @@
         <v>2</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H318" s="2" t="s">
         <v>3</v>
@@ -17040,30 +17049,30 @@
         <v>3</v>
       </c>
       <c r="K318" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>щ</v>
+        <f t="shared" si="21"/>
+        <v>ъ</v>
       </c>
       <c r="L318" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>щ</v>
+        <f t="shared" si="21"/>
+        <v>ъ</v>
       </c>
       <c r="M318" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>щ</v>
+        <f t="shared" si="21"/>
+        <v>ъ</v>
       </c>
       <c r="N318" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>276B</v>
+        <f t="shared" si="17"/>
+        <v>276C</v>
       </c>
       <c r="O318">
-        <f t="shared" si="18"/>
-        <v>10091</v>
+        <f t="shared" si="20"/>
+        <v>10092</v>
       </c>
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>ъ</v>
+        <v>ы</v>
       </c>
       <c r="B319" s="2">
         <v>4</v>
@@ -17081,7 +17090,7 @@
         <v>2</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H319" s="2" t="s">
         <v>3</v>
@@ -17093,30 +17102,30 @@
         <v>3</v>
       </c>
       <c r="K319" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ъ</v>
+        <f t="shared" si="21"/>
+        <v>ы</v>
       </c>
       <c r="L319" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ъ</v>
+        <f t="shared" si="21"/>
+        <v>ы</v>
       </c>
       <c r="M319" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ъ</v>
+        <f t="shared" si="21"/>
+        <v>ы</v>
       </c>
       <c r="N319" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>276C</v>
+        <f t="shared" si="17"/>
+        <v>276D</v>
       </c>
       <c r="O319">
-        <f t="shared" si="18"/>
-        <v>10092</v>
+        <f t="shared" si="20"/>
+        <v>10093</v>
       </c>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>ы</v>
+        <v>ь</v>
       </c>
       <c r="B320" s="2">
         <v>4</v>
@@ -17134,7 +17143,7 @@
         <v>2</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H320" s="2" t="s">
         <v>3</v>
@@ -17146,30 +17155,30 @@
         <v>3</v>
       </c>
       <c r="K320" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ы</v>
+        <f t="shared" si="21"/>
+        <v>ь</v>
       </c>
       <c r="L320" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ы</v>
+        <f t="shared" si="21"/>
+        <v>ь</v>
       </c>
       <c r="M320" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ы</v>
+        <f t="shared" si="21"/>
+        <v>ь</v>
       </c>
       <c r="N320" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>276D</v>
+        <f t="shared" si="17"/>
+        <v>276E</v>
       </c>
       <c r="O320">
-        <f t="shared" si="18"/>
-        <v>10093</v>
+        <f t="shared" si="20"/>
+        <v>10094</v>
       </c>
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>ь</v>
+        <v>э</v>
       </c>
       <c r="B321" s="2">
         <v>4</v>
@@ -17187,7 +17196,7 @@
         <v>2</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H321" s="2" t="s">
         <v>3</v>
@@ -17199,30 +17208,30 @@
         <v>3</v>
       </c>
       <c r="K321" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ь</v>
+        <f t="shared" si="21"/>
+        <v>э</v>
       </c>
       <c r="L321" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ь</v>
+        <f t="shared" si="21"/>
+        <v>э</v>
       </c>
       <c r="M321" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ь</v>
+        <f t="shared" si="21"/>
+        <v>э</v>
       </c>
       <c r="N321" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>276E</v>
+        <f t="shared" si="17"/>
+        <v>276F</v>
       </c>
       <c r="O321">
-        <f t="shared" si="18"/>
-        <v>10094</v>
+        <f t="shared" si="20"/>
+        <v>10095</v>
       </c>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>э</v>
+        <f t="shared" ref="A322:A323" si="22">CHAR(HEX2DEC($N322))</f>
+        <v>ю</v>
       </c>
       <c r="B322" s="2">
         <v>4</v>
@@ -17240,7 +17249,7 @@
         <v>2</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H322" s="2" t="s">
         <v>3</v>
@@ -17252,30 +17261,30 @@
         <v>3</v>
       </c>
       <c r="K322" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>э</v>
+        <f t="shared" si="21"/>
+        <v>ю</v>
       </c>
       <c r="L322" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>э</v>
+        <f t="shared" si="21"/>
+        <v>ю</v>
       </c>
       <c r="M322" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>э</v>
+        <f t="shared" si="21"/>
+        <v>ю</v>
       </c>
       <c r="N322" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>276F</v>
+        <f t="shared" si="17"/>
+        <v>2770</v>
       </c>
       <c r="O322">
-        <f t="shared" si="18"/>
-        <v>10095</v>
+        <f t="shared" si="20"/>
+        <v>10096</v>
       </c>
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="2" t="str">
-        <f t="shared" ref="A323:A324" si="20">CHAR(HEX2DEC($N323))</f>
-        <v>ю</v>
+        <f t="shared" si="22"/>
+        <v>я</v>
       </c>
       <c r="B323" s="2">
         <v>4</v>
@@ -17293,7 +17302,7 @@
         <v>2</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H323" s="2" t="s">
         <v>3</v>
@@ -17305,82 +17314,74 @@
         <v>3</v>
       </c>
       <c r="K323" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ю</v>
+        <f t="shared" si="21"/>
+        <v>я</v>
       </c>
       <c r="L323" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ю</v>
+        <f t="shared" si="21"/>
+        <v>я</v>
       </c>
       <c r="M323" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>ю</v>
+        <f t="shared" si="21"/>
+        <v>я</v>
       </c>
       <c r="N323" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2770</v>
+        <f t="shared" si="17"/>
+        <v>2771</v>
       </c>
       <c r="O323">
-        <f t="shared" si="18"/>
-        <v>10096</v>
+        <f t="shared" si="20"/>
+        <v>10097</v>
       </c>
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A324" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>я</v>
-      </c>
-      <c r="B324" s="2">
-        <v>4</v>
-      </c>
-      <c r="C324" s="2">
-        <v>4</v>
-      </c>
-      <c r="D324" s="2">
-        <v>949</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F324" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G324" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H324" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I324" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J324" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K324" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>я</v>
-      </c>
-      <c r="L324" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>я</v>
-      </c>
-      <c r="M324" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>я</v>
-      </c>
-      <c r="N324" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2771</v>
-      </c>
-      <c r="O324">
-        <f t="shared" si="18"/>
-        <v>10097</v>
+      <c r="A324" t="s">
+        <v>154</v>
+      </c>
+      <c r="B324">
+        <v>5</v>
+      </c>
+      <c r="C324">
+        <v>5</v>
+      </c>
+      <c r="D324">
+        <v>-3876</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1</v>
+      </c>
+      <c r="F324" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324" t="s">
+        <v>3</v>
+      </c>
+      <c r="H324" t="s">
+        <v>3</v>
+      </c>
+      <c r="I324" t="s">
+        <v>3</v>
+      </c>
+      <c r="J324" t="s">
+        <v>3</v>
+      </c>
+      <c r="K324" t="s">
+        <v>154</v>
+      </c>
+      <c r="L324" t="s">
+        <v>154</v>
+      </c>
+      <c r="M324" t="s">
+        <v>154</v>
+      </c>
+      <c r="N324" t="str">
+        <f t="shared" si="12"/>
+        <v>2821</v>
       </c>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="B325">
         <v>5</v>
@@ -17410,71 +17411,27 @@
         <v>3</v>
       </c>
       <c r="K325" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="L325" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="M325" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="N325" t="str">
         <f t="shared" si="12"/>
         <v>2821</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A326" t="s">
-        <v>208</v>
-      </c>
-      <c r="B326">
-        <v>5</v>
-      </c>
-      <c r="C326">
-        <v>5</v>
-      </c>
-      <c r="D326">
-        <v>-3876</v>
-      </c>
-      <c r="E326" t="s">
-        <v>1</v>
-      </c>
-      <c r="F326" t="s">
-        <v>10</v>
-      </c>
-      <c r="G326" t="s">
-        <v>3</v>
-      </c>
-      <c r="H326" t="s">
-        <v>3</v>
-      </c>
-      <c r="I326" t="s">
-        <v>3</v>
-      </c>
-      <c r="J326" t="s">
-        <v>3</v>
-      </c>
-      <c r="K326" t="s">
-        <v>208</v>
-      </c>
-      <c r="L326" t="s">
-        <v>208</v>
-      </c>
-      <c r="M326" t="s">
-        <v>208</v>
-      </c>
-      <c r="N326" t="str">
-        <f t="shared" si="12"/>
-        <v>2821</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N326" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N326">
-      <sortCondition ref="N1:N326"/>
+  <autoFilter ref="A1:N325" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N325">
+      <sortCondition ref="N1:N325"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>